--- a/Data/docs/TOI_insufficient_data.xlsx
+++ b/Data/docs/TOI_insufficient_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J166"/>
+  <dimension ref="A1:L166"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,15 +471,25 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
+          <t>pchembl_min</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>pchembl_max</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
           <t>Ratio</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Activity range</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>PDB_ligands</t>
         </is>
@@ -514,14 +524,20 @@
         <v>27</v>
       </c>
       <c r="H2" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="I2" t="n">
+        <v>8.890000000000001</v>
+      </c>
+      <c r="J2" t="n">
         <v>0.471</v>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>4.39 to 8.89</t>
         </is>
       </c>
-      <c r="J2" t="n">
+      <c r="L2" t="n">
         <v>3</v>
       </c>
     </row>
@@ -554,14 +570,20 @@
         <v>23</v>
       </c>
       <c r="H3" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="I3" t="n">
+        <v>9</v>
+      </c>
+      <c r="J3" t="n">
         <v>0.5</v>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>4.37 to 9.0</t>
         </is>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>5</v>
       </c>
     </row>
@@ -594,14 +616,20 @@
         <v>28</v>
       </c>
       <c r="H4" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="I4" t="n">
+        <v>8.210000000000001</v>
+      </c>
+      <c r="J4" t="n">
         <v>0.243</v>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>4.09 to 8.21</t>
         </is>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>7</v>
       </c>
     </row>
@@ -634,14 +662,20 @@
         <v>9</v>
       </c>
       <c r="H5" t="n">
+        <v>4.62</v>
+      </c>
+      <c r="I5" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="J5" t="n">
         <v>0.75</v>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>4.62 to 10.7</t>
         </is>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>10</v>
       </c>
     </row>
@@ -674,14 +708,20 @@
         <v>17</v>
       </c>
       <c r="H6" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="I6" t="n">
+        <v>8.15</v>
+      </c>
+      <c r="J6" t="n">
         <v>0.514</v>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>4.75 to 8.15</t>
         </is>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -714,14 +754,20 @@
         <v>13</v>
       </c>
       <c r="H7" t="n">
+        <v>5.23</v>
+      </c>
+      <c r="I7" t="n">
+        <v>8.529999999999999</v>
+      </c>
+      <c r="J7" t="n">
         <v>0.629</v>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>5.23 to 8.53</t>
         </is>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>2</v>
       </c>
     </row>
@@ -754,14 +800,20 @@
         <v>20</v>
       </c>
       <c r="H8" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="J8" t="n">
         <v>0.394</v>
       </c>
-      <c r="I8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>4.1 to 7.6</t>
         </is>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>5</v>
       </c>
     </row>
@@ -794,14 +846,20 @@
         <v>20</v>
       </c>
       <c r="H9" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="I9" t="n">
+        <v>8.285</v>
+      </c>
+      <c r="J9" t="n">
         <v>0.394</v>
       </c>
-      <c r="I9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>4.6 to 8.285</t>
         </is>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -834,14 +892,20 @@
         <v>27</v>
       </c>
       <c r="H10" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="I10" t="n">
+        <v>7.62</v>
+      </c>
+      <c r="J10" t="n">
         <v>0.182</v>
       </c>
-      <c r="I10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>4.38 to 7.62</t>
         </is>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>10</v>
       </c>
     </row>
@@ -874,14 +938,20 @@
         <v>17</v>
       </c>
       <c r="H11" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="I11" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="J11" t="n">
         <v>0.452</v>
       </c>
-      <c r="I11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>4.3 to 8.1</t>
         </is>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>2</v>
       </c>
     </row>
@@ -914,14 +984,20 @@
         <v>20</v>
       </c>
       <c r="H12" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="I12" t="n">
+        <v>7.47</v>
+      </c>
+      <c r="J12" t="n">
         <v>0.355</v>
       </c>
-      <c r="I12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>4.12 to 7.47</t>
         </is>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>4</v>
       </c>
     </row>
@@ -954,14 +1030,20 @@
         <v>24</v>
       </c>
       <c r="H13" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="I13" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="J13" t="n">
         <v>0.2</v>
       </c>
-      <c r="I13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>4.52 to 7.5</t>
         </is>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>3</v>
       </c>
     </row>
@@ -994,14 +1076,20 @@
         <v>29</v>
       </c>
       <c r="H14" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="I14" t="n">
+        <v>6.64</v>
+      </c>
+      <c r="J14" t="n">
         <v>0.033</v>
       </c>
-      <c r="I14" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>4.04 to 6.64</t>
         </is>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1034,14 +1122,20 @@
         <v>20</v>
       </c>
       <c r="H15" t="n">
+        <v>4</v>
+      </c>
+      <c r="I15" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="J15" t="n">
         <v>0.31</v>
       </c>
-      <c r="I15" t="inlineStr">
+      <c r="K15" t="inlineStr">
         <is>
           <t>4.0 to 7.8</t>
         </is>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1074,14 +1168,20 @@
         <v>17</v>
       </c>
       <c r="H16" t="n">
+        <v>5.13</v>
+      </c>
+      <c r="I16" t="n">
+        <v>7.09</v>
+      </c>
+      <c r="J16" t="n">
         <v>0.393</v>
       </c>
-      <c r="I16" t="inlineStr">
+      <c r="K16" t="inlineStr">
         <is>
           <t>5.13 to 7.09</t>
         </is>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1114,14 +1214,20 @@
         <v>7</v>
       </c>
       <c r="H17" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="I17" t="n">
+        <v>8.175000000000001</v>
+      </c>
+      <c r="J17" t="n">
         <v>0.741</v>
       </c>
-      <c r="I17" t="inlineStr">
+      <c r="K17" t="inlineStr">
         <is>
           <t>4.4 to 8.175</t>
         </is>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>13</v>
       </c>
     </row>
@@ -1154,14 +1260,20 @@
         <v>18</v>
       </c>
       <c r="H18" t="n">
+        <v>4.96</v>
+      </c>
+      <c r="I18" t="n">
+        <v>7.36</v>
+      </c>
+      <c r="J18" t="n">
         <v>0.333</v>
       </c>
-      <c r="I18" t="inlineStr">
+      <c r="K18" t="inlineStr">
         <is>
           <t>4.96 to 7.36</t>
         </is>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1194,14 +1306,20 @@
         <v>23</v>
       </c>
       <c r="H19" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="I19" t="n">
+        <v>7.37</v>
+      </c>
+      <c r="J19" t="n">
         <v>0.148</v>
       </c>
-      <c r="I19" t="inlineStr">
+      <c r="K19" t="inlineStr">
         <is>
           <t>4.07 to 7.37</t>
         </is>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1234,14 +1352,20 @@
         <v>25</v>
       </c>
       <c r="H20" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="I20" t="n">
+        <v>8.390000000000001</v>
+      </c>
+      <c r="J20" t="n">
         <v>0.074</v>
       </c>
-      <c r="I20" t="inlineStr">
+      <c r="K20" t="inlineStr">
         <is>
           <t>4.06 to 8.39</t>
         </is>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1274,14 +1398,20 @@
         <v>26</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr">
+        <v>4.11</v>
+      </c>
+      <c r="I21" t="n">
+        <v>6.38</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="inlineStr">
         <is>
           <t>4.11 to 6.38</t>
         </is>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1314,14 +1444,20 @@
         <v>9</v>
       </c>
       <c r="H22" t="n">
+        <v>5.12</v>
+      </c>
+      <c r="I22" t="n">
+        <v>8.050000000000001</v>
+      </c>
+      <c r="J22" t="n">
         <v>0.654</v>
       </c>
-      <c r="I22" t="inlineStr">
+      <c r="K22" t="inlineStr">
         <is>
           <t>5.12 to 8.05</t>
         </is>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1354,14 +1490,20 @@
         <v>21</v>
       </c>
       <c r="H23" t="n">
+        <v>5.345</v>
+      </c>
+      <c r="I23" t="n">
+        <v>7.045</v>
+      </c>
+      <c r="J23" t="n">
         <v>0.16</v>
       </c>
-      <c r="I23" t="inlineStr">
+      <c r="K23" t="inlineStr">
         <is>
           <t>5.345 to 7.045</t>
         </is>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1394,14 +1536,20 @@
         <v>25</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr">
+        <v>4.36</v>
+      </c>
+      <c r="I24" t="n">
+        <v>5.995</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="inlineStr">
         <is>
           <t>4.36 to 5.995</t>
         </is>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1434,14 +1582,20 @@
         <v>19</v>
       </c>
       <c r="H25" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="I25" t="n">
+        <v>8.619999999999999</v>
+      </c>
+      <c r="J25" t="n">
         <v>0.24</v>
       </c>
-      <c r="I25" t="inlineStr">
+      <c r="K25" t="inlineStr">
         <is>
           <t>4.12 to 8.62</t>
         </is>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1474,14 +1628,20 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="inlineStr">
+        <v>9</v>
+      </c>
+      <c r="I26" t="n">
+        <v>9</v>
+      </c>
+      <c r="J26" t="n">
+        <v>1</v>
+      </c>
+      <c r="K26" t="inlineStr">
         <is>
           <t>9.0 to 9.0</t>
         </is>
       </c>
-      <c r="J26" t="n">
+      <c r="L26" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1514,14 +1674,20 @@
         <v>20</v>
       </c>
       <c r="H27" t="n">
+        <v>4.99</v>
+      </c>
+      <c r="I27" t="n">
+        <v>8.220000000000001</v>
+      </c>
+      <c r="J27" t="n">
         <v>0.167</v>
       </c>
-      <c r="I27" t="inlineStr">
+      <c r="K27" t="inlineStr">
         <is>
           <t>4.99 to 8.22</t>
         </is>
       </c>
-      <c r="J27" t="n">
+      <c r="L27" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1554,14 +1720,20 @@
         <v>3</v>
       </c>
       <c r="H28" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="I28" t="n">
+        <v>9</v>
+      </c>
+      <c r="J28" t="n">
         <v>0.875</v>
       </c>
-      <c r="I28" t="inlineStr">
+      <c r="K28" t="inlineStr">
         <is>
           <t>4.29 to 9.0</t>
         </is>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>16</v>
       </c>
     </row>
@@ -1594,14 +1766,20 @@
         <v>22</v>
       </c>
       <c r="H29" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="I29" t="n">
+        <v>7.16</v>
+      </c>
+      <c r="J29" t="n">
         <v>0.083</v>
       </c>
-      <c r="I29" t="inlineStr">
+      <c r="K29" t="inlineStr">
         <is>
           <t>4.25 to 7.16</t>
         </is>
       </c>
-      <c r="J29" t="n">
+      <c r="L29" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1634,14 +1812,20 @@
         <v>17</v>
       </c>
       <c r="H30" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="I30" t="n">
+        <v>8.02</v>
+      </c>
+      <c r="J30" t="n">
         <v>0.261</v>
       </c>
-      <c r="I30" t="inlineStr">
+      <c r="K30" t="inlineStr">
         <is>
           <t>4.57 to 8.02</t>
         </is>
       </c>
-      <c r="J30" t="n">
+      <c r="L30" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1674,14 +1858,20 @@
         <v>23</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr">
+        <v>4</v>
+      </c>
+      <c r="I31" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="inlineStr">
         <is>
           <t>4.0 to 6.1</t>
         </is>
       </c>
-      <c r="J31" t="n">
+      <c r="L31" t="n">
         <v>6</v>
       </c>
     </row>
@@ -1714,14 +1904,20 @@
         <v>3</v>
       </c>
       <c r="H32" t="n">
+        <v>4.67</v>
+      </c>
+      <c r="I32" t="n">
+        <v>10.15</v>
+      </c>
+      <c r="J32" t="n">
         <v>0.864</v>
       </c>
-      <c r="I32" t="inlineStr">
+      <c r="K32" t="inlineStr">
         <is>
           <t>4.67 to 10.15</t>
         </is>
       </c>
-      <c r="J32" t="n">
+      <c r="L32" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1754,14 +1950,20 @@
         <v>16</v>
       </c>
       <c r="H33" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="I33" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="J33" t="n">
         <v>0.273</v>
       </c>
-      <c r="I33" t="inlineStr">
+      <c r="K33" t="inlineStr">
         <is>
           <t>4.07 to 9.4</t>
         </is>
       </c>
-      <c r="J33" t="n">
+      <c r="L33" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1794,14 +1996,20 @@
         <v>18</v>
       </c>
       <c r="H34" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="I34" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="J34" t="n">
         <v>0.143</v>
       </c>
-      <c r="I34" t="inlineStr">
+      <c r="K34" t="inlineStr">
         <is>
           <t>4.11 to 7.8</t>
         </is>
       </c>
-      <c r="J34" t="n">
+      <c r="L34" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1834,14 +2042,20 @@
         <v>21</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr">
+        <v>4.1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>5.22</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="inlineStr">
         <is>
           <t>4.1 to 5.22</t>
         </is>
       </c>
-      <c r="J35" t="n">
+      <c r="L35" t="n">
         <v>22</v>
       </c>
     </row>
@@ -1874,14 +2088,20 @@
         <v>11</v>
       </c>
       <c r="H36" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="I36" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="J36" t="n">
         <v>0.476</v>
       </c>
-      <c r="I36" t="inlineStr">
+      <c r="K36" t="inlineStr">
         <is>
           <t>4.2 to 8.1</t>
         </is>
       </c>
-      <c r="J36" t="n">
+      <c r="L36" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1914,14 +2134,20 @@
         <v>12</v>
       </c>
       <c r="H37" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="I37" t="n">
+        <v>7.82</v>
+      </c>
+      <c r="J37" t="n">
         <v>0.4</v>
       </c>
-      <c r="I37" t="inlineStr">
+      <c r="K37" t="inlineStr">
         <is>
           <t>4.16 to 7.82</t>
         </is>
       </c>
-      <c r="J37" t="n">
+      <c r="L37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1954,14 +2180,20 @@
         <v>16</v>
       </c>
       <c r="H38" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="I38" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="J38" t="n">
         <v>0.2</v>
       </c>
-      <c r="I38" t="inlineStr">
+      <c r="K38" t="inlineStr">
         <is>
           <t>4.6 to 7.4</t>
         </is>
       </c>
-      <c r="J38" t="n">
+      <c r="L38" t="n">
         <v>6</v>
       </c>
     </row>
@@ -1994,14 +2226,20 @@
         <v>19</v>
       </c>
       <c r="H39" t="n">
+        <v>5.27</v>
+      </c>
+      <c r="I39" t="n">
+        <v>6.52</v>
+      </c>
+      <c r="J39" t="n">
         <v>0.05</v>
       </c>
-      <c r="I39" t="inlineStr">
+      <c r="K39" t="inlineStr">
         <is>
           <t>5.27 to 6.52</t>
         </is>
       </c>
-      <c r="J39" t="n">
+      <c r="L39" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2034,14 +2272,20 @@
         <v>11</v>
       </c>
       <c r="H40" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="I40" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="J40" t="n">
         <v>0.45</v>
       </c>
-      <c r="I40" t="inlineStr">
+      <c r="K40" t="inlineStr">
         <is>
           <t>4.12 to 8.1</t>
         </is>
       </c>
-      <c r="J40" t="n">
+      <c r="L40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2074,14 +2318,20 @@
         <v>17</v>
       </c>
       <c r="H41" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="I41" t="n">
+        <v>7.85</v>
+      </c>
+      <c r="J41" t="n">
         <v>0.15</v>
       </c>
-      <c r="I41" t="inlineStr">
+      <c r="K41" t="inlineStr">
         <is>
           <t>4.85 to 7.85</t>
         </is>
       </c>
-      <c r="J41" t="n">
+      <c r="L41" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2114,14 +2364,20 @@
         <v>9</v>
       </c>
       <c r="H42" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="I42" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="J42" t="n">
         <v>0.55</v>
       </c>
-      <c r="I42" t="inlineStr">
+      <c r="K42" t="inlineStr">
         <is>
           <t>4.12 to 8.4</t>
         </is>
       </c>
-      <c r="J42" t="n">
+      <c r="L42" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2154,14 +2410,20 @@
         <v>18</v>
       </c>
       <c r="H43" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="I43" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="J43" t="n">
         <v>0.1</v>
       </c>
-      <c r="I43" t="inlineStr">
+      <c r="K43" t="inlineStr">
         <is>
           <t>4.29 to 8.3</t>
         </is>
       </c>
-      <c r="J43" t="n">
+      <c r="L43" t="n">
         <v>5</v>
       </c>
     </row>
@@ -2194,14 +2456,20 @@
         <v>2</v>
       </c>
       <c r="H44" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="I44" t="n">
+        <v>9</v>
+      </c>
+      <c r="J44" t="n">
         <v>0.9</v>
       </c>
-      <c r="I44" t="inlineStr">
+      <c r="K44" t="inlineStr">
         <is>
           <t>5.65 to 9.0</t>
         </is>
       </c>
-      <c r="J44" t="n">
+      <c r="L44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2234,14 +2502,20 @@
         <v>16</v>
       </c>
       <c r="H45" t="n">
+        <v>4.17</v>
+      </c>
+      <c r="I45" t="n">
+        <v>8.24</v>
+      </c>
+      <c r="J45" t="n">
         <v>0.158</v>
       </c>
-      <c r="I45" t="inlineStr">
+      <c r="K45" t="inlineStr">
         <is>
           <t>4.17 to 8.24</t>
         </is>
       </c>
-      <c r="J45" t="n">
+      <c r="L45" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2274,14 +2548,20 @@
         <v>12</v>
       </c>
       <c r="H46" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="I46" t="n">
+        <v>7.26</v>
+      </c>
+      <c r="J46" t="n">
         <v>0.368</v>
       </c>
-      <c r="I46" t="inlineStr">
+      <c r="K46" t="inlineStr">
         <is>
           <t>4.82 to 7.26</t>
         </is>
       </c>
-      <c r="J46" t="n">
+      <c r="L46" t="n">
         <v>20</v>
       </c>
     </row>
@@ -2314,14 +2594,20 @@
         <v>17</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr">
+        <v>4.06</v>
+      </c>
+      <c r="I47" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" t="inlineStr">
         <is>
           <t>4.06 to 5.84</t>
         </is>
       </c>
-      <c r="J47" t="n">
+      <c r="L47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2354,14 +2640,20 @@
         <v>17</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr">
+        <v>3.95</v>
+      </c>
+      <c r="I48" t="n">
+        <v>5.755</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" t="inlineStr">
         <is>
           <t>3.95 to 5.755</t>
         </is>
       </c>
-      <c r="J48" t="n">
+      <c r="L48" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2394,14 +2686,20 @@
         <v>17</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr">
+        <v>4.2</v>
+      </c>
+      <c r="I49" t="n">
+        <v>5.47</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
+      <c r="K49" t="inlineStr">
         <is>
           <t>4.2 to 5.47</t>
         </is>
       </c>
-      <c r="J49" t="n">
+      <c r="L49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2434,14 +2732,20 @@
         <v>16</v>
       </c>
       <c r="H50" t="n">
+        <v>5</v>
+      </c>
+      <c r="I50" t="n">
+        <v>6.66</v>
+      </c>
+      <c r="J50" t="n">
         <v>0.059</v>
       </c>
-      <c r="I50" t="inlineStr">
+      <c r="K50" t="inlineStr">
         <is>
           <t>5.0 to 6.66</t>
         </is>
       </c>
-      <c r="J50" t="n">
+      <c r="L50" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2474,14 +2778,20 @@
         <v>6</v>
       </c>
       <c r="H51" t="n">
+        <v>4.92</v>
+      </c>
+      <c r="I51" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="J51" t="n">
         <v>0.647</v>
       </c>
-      <c r="I51" t="inlineStr">
+      <c r="K51" t="inlineStr">
         <is>
           <t>4.92 to 8.8</t>
         </is>
       </c>
-      <c r="J51" t="n">
+      <c r="L51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2514,14 +2824,20 @@
         <v>10</v>
       </c>
       <c r="H52" t="n">
+        <v>4.61</v>
+      </c>
+      <c r="I52" t="n">
+        <v>8.31</v>
+      </c>
+      <c r="J52" t="n">
         <v>0.412</v>
       </c>
-      <c r="I52" t="inlineStr">
+      <c r="K52" t="inlineStr">
         <is>
           <t>4.61 to 8.31</t>
         </is>
       </c>
-      <c r="J52" t="n">
+      <c r="L52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2554,14 +2870,20 @@
         <v>6</v>
       </c>
       <c r="H53" t="n">
+        <v>5.52</v>
+      </c>
+      <c r="I53" t="n">
+        <v>10.15</v>
+      </c>
+      <c r="J53" t="n">
         <v>0.647</v>
       </c>
-      <c r="I53" t="inlineStr">
+      <c r="K53" t="inlineStr">
         <is>
           <t>5.52 to 10.15</t>
         </is>
       </c>
-      <c r="J53" t="n">
+      <c r="L53" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2594,14 +2916,20 @@
         <v>16</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr">
+        <v>4.13</v>
+      </c>
+      <c r="I54" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
+      <c r="K54" t="inlineStr">
         <is>
           <t>4.13 to 6.1</t>
         </is>
       </c>
-      <c r="J54" t="n">
+      <c r="L54" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2634,14 +2962,20 @@
         <v>12</v>
       </c>
       <c r="H55" t="n">
+        <v>5.03</v>
+      </c>
+      <c r="I55" t="n">
+        <v>6.89</v>
+      </c>
+      <c r="J55" t="n">
         <v>0.2</v>
       </c>
-      <c r="I55" t="inlineStr">
+      <c r="K55" t="inlineStr">
         <is>
           <t>5.03 to 6.89</t>
         </is>
       </c>
-      <c r="J55" t="n">
+      <c r="L55" t="n">
         <v>6</v>
       </c>
     </row>
@@ -2674,14 +3008,20 @@
         <v>8</v>
       </c>
       <c r="H56" t="n">
+        <v>5.63</v>
+      </c>
+      <c r="I56" t="n">
+        <v>7.42</v>
+      </c>
+      <c r="J56" t="n">
         <v>0.467</v>
       </c>
-      <c r="I56" t="inlineStr">
+      <c r="K56" t="inlineStr">
         <is>
           <t>5.63 to 7.42</t>
         </is>
       </c>
-      <c r="J56" t="n">
+      <c r="L56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2714,14 +3054,20 @@
         <v>15</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr">
+        <v>4.03</v>
+      </c>
+      <c r="I57" t="n">
+        <v>5.51</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
+      <c r="K57" t="inlineStr">
         <is>
           <t>4.03 to 5.51</t>
         </is>
       </c>
-      <c r="J57" t="n">
+      <c r="L57" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2754,14 +3100,20 @@
         <v>15</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr">
+        <v>4</v>
+      </c>
+      <c r="I58" t="n">
+        <v>4.62</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
+      <c r="K58" t="inlineStr">
         <is>
           <t>4.0 to 4.62</t>
         </is>
       </c>
-      <c r="J58" t="n">
+      <c r="L58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2794,14 +3146,20 @@
         <v>14</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr">
+        <v>4.13</v>
+      </c>
+      <c r="I59" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
+      <c r="K59" t="inlineStr">
         <is>
           <t>4.13 to 6.4</t>
         </is>
       </c>
-      <c r="J59" t="n">
+      <c r="L59" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2834,14 +3192,20 @@
         <v>14</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr">
+        <v>4.07</v>
+      </c>
+      <c r="I60" t="n">
+        <v>5.52</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
+      <c r="K60" t="inlineStr">
         <is>
           <t>4.07 to 5.52</t>
         </is>
       </c>
-      <c r="J60" t="n">
+      <c r="L60" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2874,14 +3238,20 @@
         <v>12</v>
       </c>
       <c r="H61" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="I61" t="n">
+        <v>8.220000000000001</v>
+      </c>
+      <c r="J61" t="n">
         <v>0.077</v>
       </c>
-      <c r="I61" t="inlineStr">
+      <c r="K61" t="inlineStr">
         <is>
           <t>4.03 to 8.22</t>
         </is>
       </c>
-      <c r="J61" t="n">
+      <c r="L61" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2914,14 +3284,20 @@
         <v>12</v>
       </c>
       <c r="H62" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="I62" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="J62" t="n">
         <v>0.077</v>
       </c>
-      <c r="I62" t="inlineStr">
+      <c r="K62" t="inlineStr">
         <is>
           <t>4.09 to 6.8</t>
         </is>
       </c>
-      <c r="J62" t="n">
+      <c r="L62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2954,14 +3330,20 @@
         <v>12</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr">
+        <v>4</v>
+      </c>
+      <c r="I63" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
+      <c r="K63" t="inlineStr">
         <is>
           <t>4.0 to 5.75</t>
         </is>
       </c>
-      <c r="J63" t="n">
+      <c r="L63" t="n">
         <v>11</v>
       </c>
     </row>
@@ -2994,14 +3376,20 @@
         <v>12</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr">
+        <v>4.38</v>
+      </c>
+      <c r="I64" t="n">
+        <v>6</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
+      <c r="K64" t="inlineStr">
         <is>
           <t>4.38 to 6.0</t>
         </is>
       </c>
-      <c r="J64" t="n">
+      <c r="L64" t="n">
         <v>3</v>
       </c>
     </row>
@@ -3034,14 +3422,20 @@
         <v>1</v>
       </c>
       <c r="H65" t="n">
+        <v>6.11</v>
+      </c>
+      <c r="I65" t="n">
+        <v>8.59</v>
+      </c>
+      <c r="J65" t="n">
         <v>0.909</v>
       </c>
-      <c r="I65" t="inlineStr">
+      <c r="K65" t="inlineStr">
         <is>
           <t>6.11 to 8.59</t>
         </is>
       </c>
-      <c r="J65" t="n">
+      <c r="L65" t="n">
         <v>3</v>
       </c>
     </row>
@@ -3074,14 +3468,20 @@
         <v>7</v>
       </c>
       <c r="H66" t="n">
+        <v>5</v>
+      </c>
+      <c r="I66" t="n">
+        <v>7.05</v>
+      </c>
+      <c r="J66" t="n">
         <v>0.364</v>
       </c>
-      <c r="I66" t="inlineStr">
+      <c r="K66" t="inlineStr">
         <is>
           <t>5.0 to 7.05</t>
         </is>
       </c>
-      <c r="J66" t="n">
+      <c r="L66" t="n">
         <v>6</v>
       </c>
     </row>
@@ -3114,14 +3514,20 @@
         <v>11</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr">
+        <v>4.3</v>
+      </c>
+      <c r="I67" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
+      <c r="K67" t="inlineStr">
         <is>
           <t>4.3 to 5.3</t>
         </is>
       </c>
-      <c r="J67" t="n">
+      <c r="L67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3154,14 +3560,20 @@
         <v>10</v>
       </c>
       <c r="H68" t="n">
+        <v>4.69</v>
+      </c>
+      <c r="I68" t="n">
+        <v>6.68</v>
+      </c>
+      <c r="J68" t="n">
         <v>0.091</v>
       </c>
-      <c r="I68" t="inlineStr">
+      <c r="K68" t="inlineStr">
         <is>
           <t>4.69 to 6.68</t>
         </is>
       </c>
-      <c r="J68" t="n">
+      <c r="L68" t="n">
         <v>3</v>
       </c>
     </row>
@@ -3194,14 +3606,20 @@
         <v>11</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr">
+        <v>4.46</v>
+      </c>
+      <c r="I69" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
+      <c r="K69" t="inlineStr">
         <is>
           <t>4.46 to 5.2</t>
         </is>
       </c>
-      <c r="J69" t="n">
+      <c r="L69" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3234,14 +3652,20 @@
         <v>0</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="inlineStr">
+        <v>7.82</v>
+      </c>
+      <c r="I70" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="J70" t="n">
+        <v>1</v>
+      </c>
+      <c r="K70" t="inlineStr">
         <is>
           <t>7.82 to 8.82</t>
         </is>
       </c>
-      <c r="J70" t="n">
+      <c r="L70" t="n">
         <v>4</v>
       </c>
     </row>
@@ -3274,14 +3698,20 @@
         <v>11</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr">
+        <v>4.32</v>
+      </c>
+      <c r="I71" t="n">
+        <v>5.51</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
+      <c r="K71" t="inlineStr">
         <is>
           <t>4.32 to 5.51</t>
         </is>
       </c>
-      <c r="J71" t="n">
+      <c r="L71" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3314,14 +3744,20 @@
         <v>9</v>
       </c>
       <c r="H72" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="I72" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="J72" t="n">
         <v>0.1</v>
       </c>
-      <c r="I72" t="inlineStr">
+      <c r="K72" t="inlineStr">
         <is>
           <t>4.15 to 6.7</t>
         </is>
       </c>
-      <c r="J72" t="n">
+      <c r="L72" t="n">
         <v>5</v>
       </c>
     </row>
@@ -3354,14 +3790,20 @@
         <v>7</v>
       </c>
       <c r="H73" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="I73" t="n">
+        <v>7.12</v>
+      </c>
+      <c r="J73" t="n">
         <v>0.3</v>
       </c>
-      <c r="I73" t="inlineStr">
+      <c r="K73" t="inlineStr">
         <is>
           <t>4.13 to 7.12</t>
         </is>
       </c>
-      <c r="J73" t="n">
+      <c r="L73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3394,14 +3836,20 @@
         <v>9</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr">
+        <v>4</v>
+      </c>
+      <c r="I74" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
+      <c r="K74" t="inlineStr">
         <is>
           <t>4.0 to 4.33</t>
         </is>
       </c>
-      <c r="J74" t="n">
+      <c r="L74" t="n">
         <v>40</v>
       </c>
     </row>
@@ -3434,14 +3882,20 @@
         <v>9</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr">
+        <v>4.68</v>
+      </c>
+      <c r="I75" t="n">
+        <v>5.83</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
+      <c r="K75" t="inlineStr">
         <is>
           <t>4.68 to 5.83</t>
         </is>
       </c>
-      <c r="J75" t="n">
+      <c r="L75" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3474,14 +3928,20 @@
         <v>5</v>
       </c>
       <c r="H76" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="I76" t="n">
+        <v>8.140000000000001</v>
+      </c>
+      <c r="J76" t="n">
         <v>0.375</v>
       </c>
-      <c r="I76" t="inlineStr">
+      <c r="K76" t="inlineStr">
         <is>
           <t>4.8 to 8.14</t>
         </is>
       </c>
-      <c r="J76" t="n">
+      <c r="L76" t="n">
         <v>21</v>
       </c>
     </row>
@@ -3514,14 +3974,20 @@
         <v>8</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr">
+        <v>4.06</v>
+      </c>
+      <c r="I77" t="n">
+        <v>5.92</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
+      <c r="K77" t="inlineStr">
         <is>
           <t>4.06 to 5.92</t>
         </is>
       </c>
-      <c r="J77" t="n">
+      <c r="L77" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3554,14 +4020,20 @@
         <v>6</v>
       </c>
       <c r="H78" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="I78" t="n">
+        <v>7.96</v>
+      </c>
+      <c r="J78" t="n">
         <v>0.25</v>
       </c>
-      <c r="I78" t="inlineStr">
+      <c r="K78" t="inlineStr">
         <is>
           <t>4.42 to 7.96</t>
         </is>
       </c>
-      <c r="J78" t="n">
+      <c r="L78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3594,14 +4066,20 @@
         <v>7</v>
       </c>
       <c r="H79" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="I79" t="n">
+        <v>6.82</v>
+      </c>
+      <c r="J79" t="n">
         <v>0.125</v>
       </c>
-      <c r="I79" t="inlineStr">
+      <c r="K79" t="inlineStr">
         <is>
           <t>4.11 to 6.82</t>
         </is>
       </c>
-      <c r="J79" t="n">
+      <c r="L79" t="n">
         <v>18</v>
       </c>
     </row>
@@ -3634,14 +4112,20 @@
         <v>5</v>
       </c>
       <c r="H80" t="n">
+        <v>5.485</v>
+      </c>
+      <c r="I80" t="n">
+        <v>7.435</v>
+      </c>
+      <c r="J80" t="n">
         <v>0.375</v>
       </c>
-      <c r="I80" t="inlineStr">
+      <c r="K80" t="inlineStr">
         <is>
           <t>5.485 to 7.435</t>
         </is>
       </c>
-      <c r="J80" t="n">
+      <c r="L80" t="n">
         <v>3</v>
       </c>
     </row>
@@ -3674,14 +4158,20 @@
         <v>6</v>
       </c>
       <c r="H81" t="n">
+        <v>4.91</v>
+      </c>
+      <c r="I81" t="n">
+        <v>6.85</v>
+      </c>
+      <c r="J81" t="n">
         <v>0.25</v>
       </c>
-      <c r="I81" t="inlineStr">
+      <c r="K81" t="inlineStr">
         <is>
           <t>4.91 to 6.85</t>
         </is>
       </c>
-      <c r="J81" t="n">
+      <c r="L81" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3714,14 +4204,20 @@
         <v>4</v>
       </c>
       <c r="H82" t="n">
+        <v>4.79</v>
+      </c>
+      <c r="I82" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="J82" t="n">
         <v>0.5</v>
       </c>
-      <c r="I82" t="inlineStr">
+      <c r="K82" t="inlineStr">
         <is>
           <t>4.79 to 7.3</t>
         </is>
       </c>
-      <c r="J82" t="n">
+      <c r="L82" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3754,14 +4250,20 @@
         <v>8</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr">
+        <v>4.42</v>
+      </c>
+      <c r="I83" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
+      <c r="K83" t="inlineStr">
         <is>
           <t>4.42 to 5.7</t>
         </is>
       </c>
-      <c r="J83" t="n">
+      <c r="L83" t="n">
         <v>27</v>
       </c>
     </row>
@@ -3794,14 +4296,20 @@
         <v>5</v>
       </c>
       <c r="H84" t="n">
+        <v>4</v>
+      </c>
+      <c r="I84" t="n">
+        <v>7</v>
+      </c>
+      <c r="J84" t="n">
         <v>0.286</v>
       </c>
-      <c r="I84" t="inlineStr">
+      <c r="K84" t="inlineStr">
         <is>
           <t>4.0 to 7.0</t>
         </is>
       </c>
-      <c r="J84" t="n">
+      <c r="L84" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3834,14 +4342,20 @@
         <v>7</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr">
+        <v>4.07</v>
+      </c>
+      <c r="I85" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
+      <c r="K85" t="inlineStr">
         <is>
           <t>4.07 to 6.1</t>
         </is>
       </c>
-      <c r="J85" t="n">
+      <c r="L85" t="n">
         <v>5</v>
       </c>
     </row>
@@ -3874,14 +4388,20 @@
         <v>7</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr">
+        <v>4.13</v>
+      </c>
+      <c r="I86" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
+      <c r="K86" t="inlineStr">
         <is>
           <t>4.13 to 5.7</t>
         </is>
       </c>
-      <c r="J86" t="n">
+      <c r="L86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3914,14 +4434,20 @@
         <v>5</v>
       </c>
       <c r="H87" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="I87" t="n">
+        <v>7.22</v>
+      </c>
+      <c r="J87" t="n">
         <v>0.286</v>
       </c>
-      <c r="I87" t="inlineStr">
+      <c r="K87" t="inlineStr">
         <is>
           <t>4.27 to 7.22</t>
         </is>
       </c>
-      <c r="J87" t="n">
+      <c r="L87" t="n">
         <v>5</v>
       </c>
     </row>
@@ -3954,14 +4480,20 @@
         <v>4</v>
       </c>
       <c r="H88" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="I88" t="n">
+        <v>6.89</v>
+      </c>
+      <c r="J88" t="n">
         <v>0.429</v>
       </c>
-      <c r="I88" t="inlineStr">
+      <c r="K88" t="inlineStr">
         <is>
           <t>4.35 to 6.89</t>
         </is>
       </c>
-      <c r="J88" t="n">
+      <c r="L88" t="n">
         <v>3</v>
       </c>
     </row>
@@ -3994,14 +4526,20 @@
         <v>7</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr">
+        <v>4.06</v>
+      </c>
+      <c r="I89" t="n">
+        <v>5.823</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
+      <c r="K89" t="inlineStr">
         <is>
           <t>4.06 to 5.823</t>
         </is>
       </c>
-      <c r="J89" t="n">
+      <c r="L89" t="n">
         <v>4</v>
       </c>
     </row>
@@ -4034,14 +4572,20 @@
         <v>7</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr">
+        <v>5.15</v>
+      </c>
+      <c r="I90" t="n">
+        <v>5.96</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
+      <c r="K90" t="inlineStr">
         <is>
           <t>5.15 to 5.96</t>
         </is>
       </c>
-      <c r="J90" t="n">
+      <c r="L90" t="n">
         <v>9</v>
       </c>
     </row>
@@ -4074,14 +4618,20 @@
         <v>6</v>
       </c>
       <c r="H91" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="I91" t="n">
+        <v>6.68</v>
+      </c>
+      <c r="J91" t="n">
         <v>0.143</v>
       </c>
-      <c r="I91" t="inlineStr">
+      <c r="K91" t="inlineStr">
         <is>
           <t>6.15 to 6.68</t>
         </is>
       </c>
-      <c r="J91" t="n">
+      <c r="L91" t="n">
         <v>7</v>
       </c>
     </row>
@@ -4114,14 +4664,20 @@
         <v>2</v>
       </c>
       <c r="H92" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="I92" t="n">
+        <v>9</v>
+      </c>
+      <c r="J92" t="n">
         <v>0.714</v>
       </c>
-      <c r="I92" t="inlineStr">
+      <c r="K92" t="inlineStr">
         <is>
           <t>4.8 to 9.0</t>
         </is>
       </c>
-      <c r="J92" t="n">
+      <c r="L92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4154,14 +4710,20 @@
         <v>7</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr">
+        <v>5.08</v>
+      </c>
+      <c r="I93" t="n">
+        <v>5.51</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
+      <c r="K93" t="inlineStr">
         <is>
           <t>5.08 to 5.51</t>
         </is>
       </c>
-      <c r="J93" t="n">
+      <c r="L93" t="n">
         <v>2</v>
       </c>
     </row>
@@ -4194,14 +4756,20 @@
         <v>3</v>
       </c>
       <c r="H94" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="I94" t="n">
+        <v>8.35</v>
+      </c>
+      <c r="J94" t="n">
         <v>0.5</v>
       </c>
-      <c r="I94" t="inlineStr">
+      <c r="K94" t="inlineStr">
         <is>
           <t>4.52 to 8.35</t>
         </is>
       </c>
-      <c r="J94" t="n">
+      <c r="L94" t="n">
         <v>2</v>
       </c>
     </row>
@@ -4234,14 +4802,20 @@
         <v>6</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr">
+        <v>4.82</v>
+      </c>
+      <c r="I95" t="n">
+        <v>5.82</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
+      <c r="K95" t="inlineStr">
         <is>
           <t>4.82 to 5.82</t>
         </is>
       </c>
-      <c r="J95" t="n">
+      <c r="L95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4274,14 +4848,20 @@
         <v>3</v>
       </c>
       <c r="H96" t="n">
+        <v>5.322</v>
+      </c>
+      <c r="I96" t="n">
+        <v>7.48</v>
+      </c>
+      <c r="J96" t="n">
         <v>0.5</v>
       </c>
-      <c r="I96" t="inlineStr">
+      <c r="K96" t="inlineStr">
         <is>
           <t>5.322 to 7.48</t>
         </is>
       </c>
-      <c r="J96" t="n">
+      <c r="L96" t="n">
         <v>19</v>
       </c>
     </row>
@@ -4314,14 +4894,20 @@
         <v>5</v>
       </c>
       <c r="H97" t="n">
+        <v>4.865</v>
+      </c>
+      <c r="I97" t="n">
+        <v>6.565</v>
+      </c>
+      <c r="J97" t="n">
         <v>0.167</v>
       </c>
-      <c r="I97" t="inlineStr">
+      <c r="K97" t="inlineStr">
         <is>
           <t>4.865 to 6.565</t>
         </is>
       </c>
-      <c r="J97" t="n">
+      <c r="L97" t="n">
         <v>16</v>
       </c>
     </row>
@@ -4354,14 +4940,20 @@
         <v>1</v>
       </c>
       <c r="H98" t="n">
+        <v>5.71</v>
+      </c>
+      <c r="I98" t="n">
+        <v>8.35</v>
+      </c>
+      <c r="J98" t="n">
         <v>0.833</v>
       </c>
-      <c r="I98" t="inlineStr">
+      <c r="K98" t="inlineStr">
         <is>
           <t>5.71 to 8.35</t>
         </is>
       </c>
-      <c r="J98" t="n">
+      <c r="L98" t="n">
         <v>5</v>
       </c>
     </row>
@@ -4394,14 +4986,20 @@
         <v>6</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr">
+        <v>4.53</v>
+      </c>
+      <c r="I99" t="n">
+        <v>5.54</v>
+      </c>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
+      <c r="K99" t="inlineStr">
         <is>
           <t>4.53 to 5.54</t>
         </is>
       </c>
-      <c r="J99" t="n">
+      <c r="L99" t="n">
         <v>3</v>
       </c>
     </row>
@@ -4434,14 +5032,20 @@
         <v>1</v>
       </c>
       <c r="H100" t="n">
+        <v>5.78</v>
+      </c>
+      <c r="I100" t="n">
+        <v>8.289999999999999</v>
+      </c>
+      <c r="J100" t="n">
         <v>0.833</v>
       </c>
-      <c r="I100" t="inlineStr">
+      <c r="K100" t="inlineStr">
         <is>
           <t>5.78 to 8.29</t>
         </is>
       </c>
-      <c r="J100" t="n">
+      <c r="L100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4474,14 +5078,20 @@
         <v>2</v>
       </c>
       <c r="H101" t="n">
+        <v>5.71</v>
+      </c>
+      <c r="I101" t="n">
+        <v>7.195</v>
+      </c>
+      <c r="J101" t="n">
         <v>0.6</v>
       </c>
-      <c r="I101" t="inlineStr">
+      <c r="K101" t="inlineStr">
         <is>
           <t>5.71 to 7.195</t>
         </is>
       </c>
-      <c r="J101" t="n">
+      <c r="L101" t="n">
         <v>12</v>
       </c>
     </row>
@@ -4514,14 +5124,20 @@
         <v>4</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr">
+        <v>4.85</v>
+      </c>
+      <c r="I102" t="n">
+        <v>6.17</v>
+      </c>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
+      <c r="K102" t="inlineStr">
         <is>
           <t>4.85 to 6.17</t>
         </is>
       </c>
-      <c r="J102" t="n">
+      <c r="L102" t="n">
         <v>6</v>
       </c>
     </row>
@@ -4554,14 +5170,20 @@
         <v>4</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr">
+        <v>4.31</v>
+      </c>
+      <c r="I103" t="n">
+        <v>6.35</v>
+      </c>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
+      <c r="K103" t="inlineStr">
         <is>
           <t>4.31 to 6.35</t>
         </is>
       </c>
-      <c r="J103" t="n">
+      <c r="L103" t="n">
         <v>13</v>
       </c>
     </row>
@@ -4594,14 +5216,20 @@
         <v>3</v>
       </c>
       <c r="H104" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="I104" t="n">
+        <v>6.52</v>
+      </c>
+      <c r="J104" t="n">
         <v>0.25</v>
       </c>
-      <c r="I104" t="inlineStr">
+      <c r="K104" t="inlineStr">
         <is>
           <t>5.55 to 6.52</t>
         </is>
       </c>
-      <c r="J104" t="n">
+      <c r="L104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4634,14 +5262,20 @@
         <v>1</v>
       </c>
       <c r="H105" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="I105" t="n">
+        <v>9.470000000000001</v>
+      </c>
+      <c r="J105" t="n">
         <v>0.75</v>
       </c>
-      <c r="I105" t="inlineStr">
+      <c r="K105" t="inlineStr">
         <is>
           <t>6.01 to 9.47</t>
         </is>
       </c>
-      <c r="J105" t="n">
+      <c r="L105" t="n">
         <v>2</v>
       </c>
     </row>
@@ -4674,14 +5308,20 @@
         <v>3</v>
       </c>
       <c r="H106" t="n">
+        <v>5.51</v>
+      </c>
+      <c r="I106" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="J106" t="n">
         <v>0.25</v>
       </c>
-      <c r="I106" t="inlineStr">
+      <c r="K106" t="inlineStr">
         <is>
           <t>5.51 to 6.7</t>
         </is>
       </c>
-      <c r="J106" t="n">
+      <c r="L106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4714,14 +5354,20 @@
         <v>0</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
-      </c>
-      <c r="I107" t="inlineStr">
+        <v>7.19</v>
+      </c>
+      <c r="I107" t="n">
+        <v>8.289999999999999</v>
+      </c>
+      <c r="J107" t="n">
+        <v>1</v>
+      </c>
+      <c r="K107" t="inlineStr">
         <is>
           <t>7.19 to 8.29</t>
         </is>
       </c>
-      <c r="J107" t="n">
+      <c r="L107" t="n">
         <v>7</v>
       </c>
     </row>
@@ -4754,14 +5400,20 @@
         <v>0</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
-      </c>
-      <c r="I108" t="inlineStr">
+        <v>8.31</v>
+      </c>
+      <c r="I108" t="n">
+        <v>8.609999999999999</v>
+      </c>
+      <c r="J108" t="n">
+        <v>1</v>
+      </c>
+      <c r="K108" t="inlineStr">
         <is>
           <t>8.31 to 8.61</t>
         </is>
       </c>
-      <c r="J108" t="n">
+      <c r="L108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4794,14 +5446,20 @@
         <v>3</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr">
+        <v>4.17</v>
+      </c>
+      <c r="I109" t="n">
+        <v>5.66</v>
+      </c>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
+      <c r="K109" t="inlineStr">
         <is>
           <t>4.17 to 5.66</t>
         </is>
       </c>
-      <c r="J109" t="n">
+      <c r="L109" t="n">
         <v>3</v>
       </c>
     </row>
@@ -4834,14 +5492,20 @@
         <v>1</v>
       </c>
       <c r="H110" t="n">
+        <v>4.59</v>
+      </c>
+      <c r="I110" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="J110" t="n">
         <v>0.667</v>
       </c>
-      <c r="I110" t="inlineStr">
+      <c r="K110" t="inlineStr">
         <is>
           <t>4.59 to 7.4</t>
         </is>
       </c>
-      <c r="J110" t="n">
+      <c r="L110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4874,14 +5538,20 @@
         <v>3</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr">
+        <v>4.53</v>
+      </c>
+      <c r="I111" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
+      <c r="K111" t="inlineStr">
         <is>
           <t>4.53 to 5.64</t>
         </is>
       </c>
-      <c r="J111" t="n">
+      <c r="L111" t="n">
         <v>2</v>
       </c>
     </row>
@@ -4914,14 +5584,20 @@
         <v>3</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr">
+        <v>4.68</v>
+      </c>
+      <c r="I112" t="n">
+        <v>5.32</v>
+      </c>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
+      <c r="K112" t="inlineStr">
         <is>
           <t>4.68 to 5.32</t>
         </is>
       </c>
-      <c r="J112" t="n">
+      <c r="L112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4954,14 +5630,20 @@
         <v>0</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
-      </c>
-      <c r="I113" t="inlineStr">
+        <v>7.18</v>
+      </c>
+      <c r="I113" t="n">
+        <v>7.68</v>
+      </c>
+      <c r="J113" t="n">
+        <v>1</v>
+      </c>
+      <c r="K113" t="inlineStr">
         <is>
           <t>7.18 to 7.68</t>
         </is>
       </c>
-      <c r="J113" t="n">
+      <c r="L113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4994,14 +5676,20 @@
         <v>3</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr">
+        <v>4.11</v>
+      </c>
+      <c r="I114" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
+      <c r="K114" t="inlineStr">
         <is>
           <t>4.11 to 5.5</t>
         </is>
       </c>
-      <c r="J114" t="n">
+      <c r="L114" t="n">
         <v>3</v>
       </c>
     </row>
@@ -5034,14 +5722,20 @@
         <v>3</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr">
+        <v>4.06</v>
+      </c>
+      <c r="I115" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
+      <c r="K115" t="inlineStr">
         <is>
           <t>4.06 to 4.22</t>
         </is>
       </c>
-      <c r="J115" t="n">
+      <c r="L115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5074,14 +5768,20 @@
         <v>3</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr">
+        <v>5.16</v>
+      </c>
+      <c r="I116" t="n">
+        <v>6</v>
+      </c>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
+      <c r="K116" t="inlineStr">
         <is>
           <t>5.16 to 6.0</t>
         </is>
       </c>
-      <c r="J116" t="n">
+      <c r="L116" t="n">
         <v>4</v>
       </c>
     </row>
@@ -5114,14 +5814,20 @@
         <v>0</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
-      </c>
-      <c r="I117" t="inlineStr">
+        <v>7.25</v>
+      </c>
+      <c r="I117" t="n">
+        <v>7.89</v>
+      </c>
+      <c r="J117" t="n">
+        <v>1</v>
+      </c>
+      <c r="K117" t="inlineStr">
         <is>
           <t>7.25 to 7.89</t>
         </is>
       </c>
-      <c r="J117" t="n">
+      <c r="L117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5154,14 +5860,20 @@
         <v>3</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="inlineStr">
+        <v>4.34</v>
+      </c>
+      <c r="I118" t="n">
+        <v>5.02</v>
+      </c>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
+      <c r="K118" t="inlineStr">
         <is>
           <t>4.34 to 5.02</t>
         </is>
       </c>
-      <c r="J118" t="n">
+      <c r="L118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5194,14 +5906,20 @@
         <v>2</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="inlineStr">
+        <v>4.66</v>
+      </c>
+      <c r="I119" t="n">
+        <v>6.11</v>
+      </c>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
+      <c r="K119" t="inlineStr">
         <is>
           <t>4.66 to 6.11</t>
         </is>
       </c>
-      <c r="J119" t="n">
+      <c r="L119" t="n">
         <v>4</v>
       </c>
     </row>
@@ -5234,14 +5952,20 @@
         <v>1</v>
       </c>
       <c r="H120" t="n">
+        <v>6</v>
+      </c>
+      <c r="I120" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="J120" t="n">
         <v>0.5</v>
       </c>
-      <c r="I120" t="inlineStr">
+      <c r="K120" t="inlineStr">
         <is>
           <t>6.0 to 7.3</t>
         </is>
       </c>
-      <c r="J120" t="n">
+      <c r="L120" t="n">
         <v>4</v>
       </c>
     </row>
@@ -5274,14 +5998,20 @@
         <v>2</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="inlineStr">
+        <v>6</v>
+      </c>
+      <c r="I121" t="n">
+        <v>6.23</v>
+      </c>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
+      <c r="K121" t="inlineStr">
         <is>
           <t>6.0 to 6.23</t>
         </is>
       </c>
-      <c r="J121" t="n">
+      <c r="L121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5314,14 +6044,20 @@
         <v>2</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr">
+        <v>6.3</v>
+      </c>
+      <c r="I122" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
+      <c r="K122" t="inlineStr">
         <is>
           <t>6.3 to 6.3</t>
         </is>
       </c>
-      <c r="J122" t="n">
+      <c r="L122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5354,14 +6090,20 @@
         <v>1</v>
       </c>
       <c r="H123" t="n">
+        <v>6.35</v>
+      </c>
+      <c r="I123" t="n">
+        <v>7.18</v>
+      </c>
+      <c r="J123" t="n">
         <v>0.5</v>
       </c>
-      <c r="I123" t="inlineStr">
+      <c r="K123" t="inlineStr">
         <is>
           <t>6.35 to 7.18</t>
         </is>
       </c>
-      <c r="J123" t="n">
+      <c r="L123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5394,14 +6136,20 @@
         <v>0</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
-      </c>
-      <c r="I124" t="inlineStr">
+        <v>6.54</v>
+      </c>
+      <c r="I124" t="n">
+        <v>7.89</v>
+      </c>
+      <c r="J124" t="n">
+        <v>1</v>
+      </c>
+      <c r="K124" t="inlineStr">
         <is>
           <t>6.54 to 7.89</t>
         </is>
       </c>
-      <c r="J124" t="n">
+      <c r="L124" t="n">
         <v>3</v>
       </c>
     </row>
@@ -5434,14 +6182,20 @@
         <v>1</v>
       </c>
       <c r="H125" t="n">
+        <v>6.22</v>
+      </c>
+      <c r="I125" t="n">
+        <v>6.79</v>
+      </c>
+      <c r="J125" t="n">
         <v>0.5</v>
       </c>
-      <c r="I125" t="inlineStr">
+      <c r="K125" t="inlineStr">
         <is>
           <t>6.22 to 6.79</t>
         </is>
       </c>
-      <c r="J125" t="n">
+      <c r="L125" t="n">
         <v>5</v>
       </c>
     </row>
@@ -5474,14 +6228,20 @@
         <v>2</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="inlineStr">
+        <v>4.94</v>
+      </c>
+      <c r="I126" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
+      <c r="K126" t="inlineStr">
         <is>
           <t>4.94 to 5.9</t>
         </is>
       </c>
-      <c r="J126" t="n">
+      <c r="L126" t="n">
         <v>5</v>
       </c>
     </row>
@@ -5514,14 +6274,20 @@
         <v>2</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="inlineStr">
+        <v>4.94</v>
+      </c>
+      <c r="I127" t="n">
+        <v>5.35</v>
+      </c>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
+      <c r="K127" t="inlineStr">
         <is>
           <t>4.94 to 5.35</t>
         </is>
       </c>
-      <c r="J127" t="n">
+      <c r="L127" t="n">
         <v>3</v>
       </c>
     </row>
@@ -5554,14 +6320,20 @@
         <v>2</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="inlineStr">
+        <v>5.72</v>
+      </c>
+      <c r="I128" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
+      <c r="K128" t="inlineStr">
         <is>
           <t>5.72 to 6.01</t>
         </is>
       </c>
-      <c r="J128" t="n">
+      <c r="L128" t="n">
         <v>6</v>
       </c>
     </row>
@@ -5594,14 +6366,20 @@
         <v>1</v>
       </c>
       <c r="H129" t="n">
+        <v>6.14</v>
+      </c>
+      <c r="I129" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="J129" t="n">
         <v>0.5</v>
       </c>
-      <c r="I129" t="inlineStr">
+      <c r="K129" t="inlineStr">
         <is>
           <t>6.14 to 9.5</t>
         </is>
       </c>
-      <c r="J129" t="n">
+      <c r="L129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5634,14 +6412,20 @@
         <v>1</v>
       </c>
       <c r="H130" t="n">
+        <v>4.96</v>
+      </c>
+      <c r="I130" t="n">
+        <v>9.26</v>
+      </c>
+      <c r="J130" t="n">
         <v>0.5</v>
       </c>
-      <c r="I130" t="inlineStr">
+      <c r="K130" t="inlineStr">
         <is>
           <t>4.96 to 9.26</t>
         </is>
       </c>
-      <c r="J130" t="n">
+      <c r="L130" t="n">
         <v>3</v>
       </c>
     </row>
@@ -5674,14 +6458,20 @@
         <v>2</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="inlineStr">
+        <v>3.4</v>
+      </c>
+      <c r="I131" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
+      <c r="K131" t="inlineStr">
         <is>
           <t>3.4 to 5.7</t>
         </is>
       </c>
-      <c r="J131" t="n">
+      <c r="L131" t="n">
         <v>7</v>
       </c>
     </row>
@@ -5714,14 +6504,20 @@
         <v>2</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="inlineStr">
+        <v>4.7</v>
+      </c>
+      <c r="I132" t="n">
+        <v>4.92</v>
+      </c>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
+      <c r="K132" t="inlineStr">
         <is>
           <t>4.7 to 4.92</t>
         </is>
       </c>
-      <c r="J132" t="n">
+      <c r="L132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5754,14 +6550,20 @@
         <v>2</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="inlineStr">
+        <v>4.24</v>
+      </c>
+      <c r="I133" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
+      <c r="K133" t="inlineStr">
         <is>
           <t>4.24 to 4.54</t>
         </is>
       </c>
-      <c r="J133" t="n">
+      <c r="L133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5794,14 +6596,20 @@
         <v>1</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="inlineStr">
+        <v>5.75</v>
+      </c>
+      <c r="I134" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
+      <c r="K134" t="inlineStr">
         <is>
           <t>5.75 to 5.75</t>
         </is>
       </c>
-      <c r="J134" t="n">
+      <c r="L134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5834,14 +6642,20 @@
         <v>0</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
-      </c>
-      <c r="I135" t="inlineStr">
+        <v>7.48</v>
+      </c>
+      <c r="I135" t="n">
+        <v>7.48</v>
+      </c>
+      <c r="J135" t="n">
+        <v>1</v>
+      </c>
+      <c r="K135" t="inlineStr">
         <is>
           <t>7.48 to 7.48</t>
         </is>
       </c>
-      <c r="J135" t="n">
+      <c r="L135" t="n">
         <v>4</v>
       </c>
     </row>
@@ -5874,14 +6688,20 @@
         <v>1</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="inlineStr">
+        <v>5.345</v>
+      </c>
+      <c r="I136" t="n">
+        <v>5.345</v>
+      </c>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
+      <c r="K136" t="inlineStr">
         <is>
           <t>5.345 to 5.345</t>
         </is>
       </c>
-      <c r="J136" t="n">
+      <c r="L136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5914,14 +6734,20 @@
         <v>1</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="inlineStr">
+        <v>3.4</v>
+      </c>
+      <c r="I137" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
+      <c r="K137" t="inlineStr">
         <is>
           <t>3.4 to 3.4</t>
         </is>
       </c>
-      <c r="J137" t="n">
+      <c r="L137" t="n">
         <v>2</v>
       </c>
     </row>
@@ -5954,14 +6780,20 @@
         <v>1</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="inlineStr">
+        <v>4.2</v>
+      </c>
+      <c r="I138" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
+      <c r="K138" t="inlineStr">
         <is>
           <t>4.2 to 4.2</t>
         </is>
       </c>
-      <c r="J138" t="n">
+      <c r="L138" t="n">
         <v>7</v>
       </c>
     </row>
@@ -5994,14 +6826,20 @@
         <v>0</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
-      </c>
-      <c r="I139" t="inlineStr">
+        <v>8.48</v>
+      </c>
+      <c r="I139" t="n">
+        <v>8.48</v>
+      </c>
+      <c r="J139" t="n">
+        <v>1</v>
+      </c>
+      <c r="K139" t="inlineStr">
         <is>
           <t>8.48 to 8.48</t>
         </is>
       </c>
-      <c r="J139" t="n">
+      <c r="L139" t="n">
         <v>2</v>
       </c>
     </row>
@@ -6034,14 +6872,20 @@
         <v>1</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="inlineStr">
+        <v>6.17</v>
+      </c>
+      <c r="I140" t="n">
+        <v>6.17</v>
+      </c>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
+      <c r="K140" t="inlineStr">
         <is>
           <t>6.17 to 6.17</t>
         </is>
       </c>
-      <c r="J140" t="n">
+      <c r="L140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6074,14 +6918,20 @@
         <v>1</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="inlineStr">
+        <v>4.12</v>
+      </c>
+      <c r="I141" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
+      <c r="K141" t="inlineStr">
         <is>
           <t>4.12 to 4.12</t>
         </is>
       </c>
-      <c r="J141" t="n">
+      <c r="L141" t="n">
         <v>8</v>
       </c>
     </row>
@@ -6114,14 +6964,20 @@
         <v>1</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="inlineStr">
+        <v>4.375</v>
+      </c>
+      <c r="I142" t="n">
+        <v>4.375</v>
+      </c>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
+      <c r="K142" t="inlineStr">
         <is>
           <t>4.375 to 4.375</t>
         </is>
       </c>
-      <c r="J142" t="n">
+      <c r="L142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6154,14 +7010,20 @@
         <v>1</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="inlineStr">
+        <v>4.88</v>
+      </c>
+      <c r="I143" t="n">
+        <v>4.88</v>
+      </c>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
+      <c r="K143" t="inlineStr">
         <is>
           <t>4.88 to 4.88</t>
         </is>
       </c>
-      <c r="J143" t="n">
+      <c r="L143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6194,14 +7056,20 @@
         <v>1</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="inlineStr">
+        <v>4.77</v>
+      </c>
+      <c r="I144" t="n">
+        <v>4.77</v>
+      </c>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
+      <c r="K144" t="inlineStr">
         <is>
           <t>4.77 to 4.77</t>
         </is>
       </c>
-      <c r="J144" t="n">
+      <c r="L144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6234,14 +7102,20 @@
         <v>1</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="inlineStr">
+        <v>4.8</v>
+      </c>
+      <c r="I145" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
+      <c r="K145" t="inlineStr">
         <is>
           <t>4.8 to 4.8</t>
         </is>
       </c>
-      <c r="J145" t="n">
+      <c r="L145" t="n">
         <v>2</v>
       </c>
     </row>
@@ -6274,14 +7148,20 @@
         <v>0</v>
       </c>
       <c r="H146" t="n">
-        <v>1</v>
-      </c>
-      <c r="I146" t="inlineStr">
+        <v>7.62</v>
+      </c>
+      <c r="I146" t="n">
+        <v>7.62</v>
+      </c>
+      <c r="J146" t="n">
+        <v>1</v>
+      </c>
+      <c r="K146" t="inlineStr">
         <is>
           <t>7.62 to 7.62</t>
         </is>
       </c>
-      <c r="J146" t="n">
+      <c r="L146" t="n">
         <v>3</v>
       </c>
     </row>
@@ -6314,14 +7194,20 @@
         <v>1</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="inlineStr">
+        <v>3.02</v>
+      </c>
+      <c r="I147" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
+      <c r="K147" t="inlineStr">
         <is>
           <t>3.02 to 3.02</t>
         </is>
       </c>
-      <c r="J147" t="n">
+      <c r="L147" t="n">
         <v>9</v>
       </c>
     </row>
@@ -6354,14 +7240,20 @@
         <v>0</v>
       </c>
       <c r="H148" t="n">
-        <v>1</v>
-      </c>
-      <c r="I148" t="inlineStr">
+        <v>9</v>
+      </c>
+      <c r="I148" t="n">
+        <v>9</v>
+      </c>
+      <c r="J148" t="n">
+        <v>1</v>
+      </c>
+      <c r="K148" t="inlineStr">
         <is>
           <t>9.0 to 9.0</t>
         </is>
       </c>
-      <c r="J148" t="n">
+      <c r="L148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6394,14 +7286,20 @@
         <v>1</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="inlineStr">
+        <v>6.43</v>
+      </c>
+      <c r="I149" t="n">
+        <v>6.43</v>
+      </c>
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
+      <c r="K149" t="inlineStr">
         <is>
           <t>6.43 to 6.43</t>
         </is>
       </c>
-      <c r="J149" t="n">
+      <c r="L149" t="n">
         <v>16</v>
       </c>
     </row>
@@ -6434,14 +7332,20 @@
         <v>1</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="inlineStr">
+        <v>6.255</v>
+      </c>
+      <c r="I150" t="n">
+        <v>6.255</v>
+      </c>
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
+      <c r="K150" t="inlineStr">
         <is>
           <t>6.255 to 6.255</t>
         </is>
       </c>
-      <c r="J150" t="n">
+      <c r="L150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6474,14 +7378,20 @@
         <v>0</v>
       </c>
       <c r="H151" t="n">
-        <v>1</v>
-      </c>
-      <c r="I151" t="inlineStr">
+        <v>6.6</v>
+      </c>
+      <c r="I151" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="J151" t="n">
+        <v>1</v>
+      </c>
+      <c r="K151" t="inlineStr">
         <is>
           <t>6.6 to 6.6</t>
         </is>
       </c>
-      <c r="J151" t="n">
+      <c r="L151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6514,14 +7424,20 @@
         <v>1</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="inlineStr">
+        <v>6.24</v>
+      </c>
+      <c r="I152" t="n">
+        <v>6.24</v>
+      </c>
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
+      <c r="K152" t="inlineStr">
         <is>
           <t>6.24 to 6.24</t>
         </is>
       </c>
-      <c r="J152" t="n">
+      <c r="L152" t="n">
         <v>5</v>
       </c>
     </row>
@@ -6554,14 +7470,20 @@
         <v>0</v>
       </c>
       <c r="H153" t="n">
-        <v>1</v>
-      </c>
-      <c r="I153" t="inlineStr">
+        <v>9.15</v>
+      </c>
+      <c r="I153" t="n">
+        <v>9.15</v>
+      </c>
+      <c r="J153" t="n">
+        <v>1</v>
+      </c>
+      <c r="K153" t="inlineStr">
         <is>
           <t>9.15 to 9.15</t>
         </is>
       </c>
-      <c r="J153" t="n">
+      <c r="L153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6594,14 +7516,20 @@
         <v>1</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="inlineStr">
+        <v>4.78</v>
+      </c>
+      <c r="I154" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
+      <c r="K154" t="inlineStr">
         <is>
           <t>4.78 to 4.78</t>
         </is>
       </c>
-      <c r="J154" t="n">
+      <c r="L154" t="n">
         <v>2</v>
       </c>
     </row>
@@ -6634,14 +7562,20 @@
         <v>1</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="inlineStr">
+        <v>4.12</v>
+      </c>
+      <c r="I155" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
+      <c r="K155" t="inlineStr">
         <is>
           <t>4.12 to 4.12</t>
         </is>
       </c>
-      <c r="J155" t="n">
+      <c r="L155" t="n">
         <v>3</v>
       </c>
     </row>
@@ -6674,14 +7608,20 @@
         <v>0</v>
       </c>
       <c r="H156" t="n">
-        <v>1</v>
-      </c>
-      <c r="I156" t="inlineStr">
+        <v>7.4</v>
+      </c>
+      <c r="I156" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="J156" t="n">
+        <v>1</v>
+      </c>
+      <c r="K156" t="inlineStr">
         <is>
           <t>7.4 to 7.4</t>
         </is>
       </c>
-      <c r="J156" t="n">
+      <c r="L156" t="n">
         <v>7</v>
       </c>
     </row>
@@ -6714,14 +7654,20 @@
         <v>1</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="inlineStr">
+        <v>4.3</v>
+      </c>
+      <c r="I157" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
+      <c r="K157" t="inlineStr">
         <is>
           <t>4.3 to 4.3</t>
         </is>
       </c>
-      <c r="J157" t="n">
+      <c r="L157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6754,14 +7700,20 @@
         <v>1</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="inlineStr">
+        <v>4.1</v>
+      </c>
+      <c r="I158" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
+      <c r="K158" t="inlineStr">
         <is>
           <t>4.1 to 4.1</t>
         </is>
       </c>
-      <c r="J158" t="n">
+      <c r="L158" t="n">
         <v>3</v>
       </c>
     </row>
@@ -6794,14 +7746,20 @@
         <v>1</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="inlineStr">
+        <v>5.37</v>
+      </c>
+      <c r="I159" t="n">
+        <v>5.37</v>
+      </c>
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
+      <c r="K159" t="inlineStr">
         <is>
           <t>5.37 to 5.37</t>
         </is>
       </c>
-      <c r="J159" t="n">
+      <c r="L159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6834,14 +7792,20 @@
         <v>1</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="inlineStr">
+        <v>5.12</v>
+      </c>
+      <c r="I160" t="n">
+        <v>5.12</v>
+      </c>
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
+      <c r="K160" t="inlineStr">
         <is>
           <t>5.12 to 5.12</t>
         </is>
       </c>
-      <c r="J160" t="n">
+      <c r="L160" t="n">
         <v>3</v>
       </c>
     </row>
@@ -6874,14 +7838,20 @@
         <v>0</v>
       </c>
       <c r="H161" t="n">
-        <v>1</v>
-      </c>
-      <c r="I161" t="inlineStr">
+        <v>7.08</v>
+      </c>
+      <c r="I161" t="n">
+        <v>7.08</v>
+      </c>
+      <c r="J161" t="n">
+        <v>1</v>
+      </c>
+      <c r="K161" t="inlineStr">
         <is>
           <t>7.08 to 7.08</t>
         </is>
       </c>
-      <c r="J161" t="n">
+      <c r="L161" t="n">
         <v>35</v>
       </c>
     </row>
@@ -6914,14 +7884,20 @@
         <v>1</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="inlineStr">
+        <v>4.24</v>
+      </c>
+      <c r="I162" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
+      <c r="K162" t="inlineStr">
         <is>
           <t>4.24 to 4.24</t>
         </is>
       </c>
-      <c r="J162" t="n">
+      <c r="L162" t="n">
         <v>2</v>
       </c>
     </row>
@@ -6954,14 +7930,20 @@
         <v>1</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="inlineStr">
+        <v>5.75</v>
+      </c>
+      <c r="I163" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
+      <c r="K163" t="inlineStr">
         <is>
           <t>5.75 to 5.75</t>
         </is>
       </c>
-      <c r="J163" t="n">
+      <c r="L163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6994,14 +7976,20 @@
         <v>0</v>
       </c>
       <c r="H164" t="n">
-        <v>1</v>
-      </c>
-      <c r="I164" t="inlineStr">
+        <v>8.015000000000001</v>
+      </c>
+      <c r="I164" t="n">
+        <v>8.015000000000001</v>
+      </c>
+      <c r="J164" t="n">
+        <v>1</v>
+      </c>
+      <c r="K164" t="inlineStr">
         <is>
           <t>8.015 to 8.015</t>
         </is>
       </c>
-      <c r="J164" t="n">
+      <c r="L164" t="n">
         <v>2</v>
       </c>
     </row>
@@ -7034,14 +8022,20 @@
         <v>0</v>
       </c>
       <c r="H165" t="n">
-        <v>1</v>
-      </c>
-      <c r="I165" t="inlineStr">
+        <v>7.54</v>
+      </c>
+      <c r="I165" t="n">
+        <v>7.54</v>
+      </c>
+      <c r="J165" t="n">
+        <v>1</v>
+      </c>
+      <c r="K165" t="inlineStr">
         <is>
           <t>7.54 to 7.54</t>
         </is>
       </c>
-      <c r="J165" t="n">
+      <c r="L165" t="n">
         <v>2</v>
       </c>
     </row>
@@ -7074,14 +8068,20 @@
         <v>0</v>
       </c>
       <c r="H166" t="n">
-        <v>1</v>
-      </c>
-      <c r="I166" t="inlineStr">
+        <v>7.82</v>
+      </c>
+      <c r="I166" t="n">
+        <v>7.82</v>
+      </c>
+      <c r="J166" t="n">
+        <v>1</v>
+      </c>
+      <c r="K166" t="inlineStr">
         <is>
           <t>7.82 to 7.82</t>
         </is>
       </c>
-      <c r="J166" t="n">
+      <c r="L166" t="n">
         <v>57</v>
       </c>
     </row>
